--- a/src/doc/web优化任务分配.xlsx
+++ b/src/doc/web优化任务分配.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="css" sheetId="1" r:id="rId1"/>
-    <sheet name="dataUtil" sheetId="2" r:id="rId2"/>
-    <sheet name="htmlUtil" sheetId="3" r:id="rId3"/>
-    <sheet name="global" sheetId="4" r:id="rId4"/>
-    <sheet name="问题汇总" sheetId="5" r:id="rId5"/>
+    <sheet name="页签说明" sheetId="6" r:id="rId1"/>
+    <sheet name="css" sheetId="1" r:id="rId2"/>
+    <sheet name="dataUtil" sheetId="2" r:id="rId3"/>
+    <sheet name="htmlUtil" sheetId="3" r:id="rId4"/>
+    <sheet name="global" sheetId="4" r:id="rId5"/>
+    <sheet name="问题汇总" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>className</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$.fd.select()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最外层的背景色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +140,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成删除图标，支持删除输入框的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,39 +314,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应url获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本正则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提起人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录所有常用的class名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有和数据相关的操作，不涉及页面的展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>htmlUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续具体实现过程中遇到的问题汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>G_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应url获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本正则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提起人</t>
+    <t>系统中常用的全局变量以及常量，常量大写，变量小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框的封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持单选多选，事件绑定，数据刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供页面展示用的方法，里面会包含下拉框，table等所有插件的封装使用，
+里面插件的封装可以是找的现成插件，也可以是自己写的，要求就是满足后面所有的需求，引入的插件负责对css重新，符合我们现在的UI规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持单表头和多表头，固定表格高度，数据刷新，
+掩藏列等操作，需要继承滚动条样式修改和checkbox的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类案中收结存的面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供赋值的方法，外观修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,6 +769,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="64.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -708,166 +855,166 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +1024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -912,13 +1059,13 @@
     </row>
     <row r="2" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -932,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -944,12 +1091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,9 +1105,10 @@
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="6" max="6" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -974,23 +1122,66 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -999,12 +1190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,55 +1218,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1084,11 +1275,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
